--- a/bug_orange_hrm (7).xlsx
+++ b/bug_orange_hrm (7).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -161,6 +161,21 @@
 2. Scroll down to the Attachments section.
 3. Click the "Add" button next to Attachments
 4. Observe the "Select File" field</t>
+  </si>
+  <si>
+    <t>[My Info] The Date of Birth is greater than today</t>
+  </si>
+  <si>
+    <t>1. Click on tab "My Info" on the Navigation bar
+2. Click on Section Personal Details
+3. Choose a value Date of birth greater than today
+4. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>It shows an error message: "Date of birth cannot greater than today" and cannot save new information.</t>
+  </si>
+  <si>
+    <t>Successfully saved with the day of birth is greater than today's date.</t>
   </si>
 </sst>
 </file>
@@ -527,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -538,7 +553,7 @@
     <col min="3" max="3" width="88.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="140.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="104.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="127.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -723,16 +738,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
